--- a/jiggingpro.xlsx
+++ b/jiggingpro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1460,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1610,7 +1610,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/jiggingpro.xlsx
+++ b/jiggingpro.xlsx
@@ -9,15 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Transaction" sheetId="6" r:id="rId2"/>
-    <sheet name="Price" sheetId="5" r:id="rId3"/>
-    <sheet name="Product" sheetId="4" r:id="rId4"/>
-    <sheet name="Manufacturer" sheetId="2" r:id="rId5"/>
-    <sheet name="Distributor" sheetId="3" r:id="rId6"/>
+    <sheet name="Product" sheetId="4" r:id="rId3"/>
+    <sheet name="Manufacturer" sheetId="2" r:id="rId4"/>
+    <sheet name="다미끼" sheetId="7" r:id="rId5"/>
+    <sheet name="메이저크레프트" sheetId="10" r:id="rId6"/>
+    <sheet name="배스랜드" sheetId="11" r:id="rId7"/>
+    <sheet name="Distributor" sheetId="3" r:id="rId8"/>
+    <sheet name="Price" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="116">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,22 +350,6 @@
     <t>444-4444-4444</t>
   </si>
   <si>
-    <t>manuf_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manuf_2</t>
-  </si>
-  <si>
-    <t>manuf_3</t>
-  </si>
-  <si>
-    <t>manuf_4</t>
-  </si>
-  <si>
-    <t>manuf_5</t>
-  </si>
-  <si>
     <t>Korea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,6 +398,98 @@
   </si>
   <si>
     <t>BUY_PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다미끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이저크래프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배스랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LanceLong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TokenJig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TokenJigJR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TokenAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balhae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real sadrin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real anchobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,7 +1197,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1333,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -1274,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -1294,7 +1373,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -1334,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C11" s="10">
         <v>7</v>
@@ -1354,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C12" s="10">
         <v>7</v>
@@ -1374,7 +1453,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C13" s="10">
         <v>8</v>
@@ -1414,7 +1493,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C15" s="10">
         <v>13</v>
@@ -1434,7 +1513,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C16" s="10">
         <v>13</v>
@@ -1458,159 +1537,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="4" width="17.875" style="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="10">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2500</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1645,10 +1575,10 @@
         <v>41</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2011,7 +1941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2052,10 +1982,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="G2" s="10">
         <v>1</v>
@@ -2066,10 +1996,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="G3" s="10">
         <v>1</v>
@@ -2080,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G4" s="10">
         <v>2</v>
@@ -2094,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G5" s="10">
         <v>2</v>
@@ -2108,10 +2038,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="10">
         <v>3</v>
@@ -2122,11 +2052,427 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="10">
+        <v>200</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="10">
+        <v>200</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="10">
+        <v>200</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="10">
+        <v>200</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="10">
+        <v>200</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="10">
+        <v>250</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="10">
+        <v>250</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="10">
+        <v>250</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="10">
+        <v>250</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="10">
+        <v>250</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="10">
+        <v>300</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="10">
+        <v>300</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="10">
+        <v>300</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="10">
+        <v>300</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="10">
+        <v>300</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="10">
         <v>3</v>
       </c>
@@ -2137,12 +2483,153 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2242,4 +2729,153 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="17.875" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/jiggingpro.xlsx
+++ b/jiggingpro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="158">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,10 +433,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TokenAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WEIGHT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,10 +441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Balhae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,6 +482,173 @@
   </si>
   <si>
     <t>chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#02</t>
+  </si>
+  <si>
+    <t>#03</t>
+  </si>
+  <si>
+    <t>#04</t>
+  </si>
+  <si>
+    <t>#05</t>
+  </si>
+  <si>
+    <t>#06</t>
+  </si>
+  <si>
+    <t>#07</t>
+  </si>
+  <si>
+    <t>#01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#30</t>
+  </si>
+  <si>
+    <t>Grafin160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#46</t>
+  </si>
+  <si>
+    <t>#47</t>
+  </si>
+  <si>
+    <t>#501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheRock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VexJiggingHook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#5/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RodBelt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>makeral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamic pink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby tuna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome redhead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1539,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2070,16 +2229,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2090,16 +2249,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2113,11 +2272,11 @@
         <v>200</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2131,11 +2290,11 @@
         <v>200</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2149,11 +2308,11 @@
         <v>200</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2167,11 +2326,11 @@
         <v>200</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2185,11 +2344,11 @@
         <v>200</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2203,11 +2362,17 @@
         <v>250</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="10"/>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
       <c r="B8" s="10" t="s">
         <v>98</v>
       </c>
@@ -2215,10 +2380,16 @@
         <v>250</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
       <c r="B9" s="10" t="s">
         <v>98</v>
       </c>
@@ -2226,10 +2397,16 @@
         <v>250</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
       <c r="B10" s="10" t="s">
         <v>98</v>
       </c>
@@ -2237,10 +2414,16 @@
         <v>250</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
       <c r="B11" s="10" t="s">
         <v>98</v>
       </c>
@@ -2248,10 +2431,16 @@
         <v>250</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
       <c r="B12" s="10" t="s">
         <v>98</v>
       </c>
@@ -2259,10 +2448,16 @@
         <v>300</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
       <c r="B13" s="10" t="s">
         <v>98</v>
       </c>
@@ -2270,10 +2465,16 @@
         <v>300</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
       <c r="B14" s="10" t="s">
         <v>98</v>
       </c>
@@ -2281,10 +2482,16 @@
         <v>300</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
       <c r="B15" s="10" t="s">
         <v>98</v>
       </c>
@@ -2292,10 +2499,16 @@
         <v>300</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
       <c r="B16" s="10" t="s">
         <v>98</v>
       </c>
@@ -2303,36 +2516,1035 @@
         <v>300</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
       <c r="B17" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C17" s="10">
+        <v>20</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="10">
+        <v>20</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="10">
+        <v>20</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="10">
+        <v>20</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="10">
+        <v>20</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="10">
+        <v>20</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="10">
+        <v>20</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="D24" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="10">
+        <v>30</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="10">
+        <v>30</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="10">
+        <v>30</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="10">
+        <v>30</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="10">
+        <v>30</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="10">
+        <v>30</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="10">
+        <v>40</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="10">
+        <v>40</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="10">
+        <v>40</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="10">
+        <v>40</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="10">
+        <v>40</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="10">
+        <v>40</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="10">
+        <v>40</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="10">
+        <v>60</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="10">
+        <v>60</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="10">
+        <v>60</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="10">
+        <v>60</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="10">
+        <v>60</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="10">
+        <v>60</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="10">
+        <v>60</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>44</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="C45" s="10">
+        <v>3</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="10">
+        <v>3</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="10">
+        <v>3</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="10">
+        <v>3</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="10">
+        <v>3</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="10">
+        <v>3</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="10">
+        <v>3</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="10">
+        <v>6</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="10">
+        <v>6</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="10">
+        <v>6</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="10">
+        <v>6</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="10">
+        <v>6</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="10">
+        <v>6</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="10">
+        <v>6</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="10">
+        <v>9</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="10">
+        <v>9</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>104</v>
+      <c r="B61" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="10">
+        <v>9</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="10">
+        <v>9</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="10">
+        <v>9</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="10">
+        <v>9</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="10">
+        <v>9</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="10">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="10">
+        <v>62</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="10">
+        <v>62</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="10">
+        <v>62</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
+        <v>68</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="10">
+        <v>62</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="10">
+        <v>62</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
+        <v>71</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="E72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="E73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="10">
+        <v>73</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="10">
+        <v>74</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="10">
+        <v>75</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="10">
+        <v>76</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="10">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
+        <v>78</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79" t="s">
+        <v>141</v>
+      </c>
+      <c r="F79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="10">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="10">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="10">
+        <v>81</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" t="s">
+        <v>140</v>
+      </c>
+      <c r="E82" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="10">
+        <v>82</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" t="s">
+        <v>141</v>
+      </c>
+      <c r="F83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="10">
+        <v>83</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" t="s">
+        <v>142</v>
+      </c>
+      <c r="F84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="10">
+        <v>84</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="10">
+        <v>85</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" t="s">
+        <v>145</v>
+      </c>
+      <c r="E86" t="s">
+        <v>144</v>
+      </c>
+      <c r="F86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="10">
+        <v>86</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" t="s">
+        <v>149</v>
+      </c>
+      <c r="F87" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="10">
+        <v>87</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" t="s">
+        <v>150</v>
+      </c>
+      <c r="F88" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/jiggingpro.xlsx
+++ b/jiggingpro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="159">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -649,6 +649,10 @@
   </si>
   <si>
     <t>chrome redhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이저크레프트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1698,7 +1702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -2105,7 +2109,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2155,7 +2159,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>67</v>
@@ -2232,7 +2236,7 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3556,15 +3560,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3572,22 +3576,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3600,11 +3601,8 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3617,11 +3615,8 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3634,11 +3629,8 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3651,11 +3643,8 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3668,11 +3657,8 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3685,9 +3671,6 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3697,15 +3680,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3713,22 +3696,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3741,11 +3721,8 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3758,11 +3735,8 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3775,11 +3749,8 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3792,11 +3763,8 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3809,11 +3777,8 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3826,9 +3791,6 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3841,7 +3803,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/jiggingpro.xlsx
+++ b/jiggingpro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="160">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,6 +653,10 @@
   </si>
   <si>
     <t>메이저크레프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2235,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3304,6 +3308,12 @@
       <c r="B71" s="10" t="s">
         <v>130</v>
       </c>
+      <c r="C71" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" t="s">
+        <v>159</v>
+      </c>
       <c r="E71" t="s">
         <v>131</v>
       </c>
@@ -3315,7 +3325,12 @@
       <c r="B72" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="10"/>
+      <c r="C72" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" t="s">
+        <v>159</v>
+      </c>
       <c r="E72" t="s">
         <v>132</v>
       </c>
@@ -3327,7 +3342,12 @@
       <c r="B73" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="10"/>
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" t="s">
+        <v>159</v>
+      </c>
       <c r="E73" t="s">
         <v>133</v>
       </c>
@@ -3339,6 +3359,12 @@
       <c r="B74" s="10" t="s">
         <v>130</v>
       </c>
+      <c r="C74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" t="s">
+        <v>159</v>
+      </c>
       <c r="E74" t="s">
         <v>134</v>
       </c>
@@ -3350,6 +3376,12 @@
       <c r="B75" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="C75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75" t="s">
+        <v>159</v>
+      </c>
       <c r="E75" t="s">
         <v>132</v>
       </c>
@@ -3361,6 +3393,12 @@
       <c r="B76" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="C76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" t="s">
+        <v>159</v>
+      </c>
       <c r="E76" t="s">
         <v>136</v>
       </c>
@@ -3372,6 +3410,12 @@
       <c r="B77" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="C77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" t="s">
+        <v>159</v>
+      </c>
       <c r="E77" t="s">
         <v>137</v>
       </c>
@@ -3383,6 +3427,12 @@
       <c r="B78" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="C78" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" t="s">
+        <v>159</v>
+      </c>
       <c r="E78" t="s">
         <v>138</v>
       </c>
@@ -3394,6 +3444,9 @@
       <c r="B79" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="C79" t="s">
+        <v>159</v>
+      </c>
       <c r="D79" t="s">
         <v>140</v>
       </c>
@@ -3411,6 +3464,9 @@
       <c r="B80" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="C80" t="s">
+        <v>159</v>
+      </c>
       <c r="D80" t="s">
         <v>140</v>
       </c>
@@ -3428,6 +3484,9 @@
       <c r="B81" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="C81" t="s">
+        <v>159</v>
+      </c>
       <c r="D81" t="s">
         <v>140</v>
       </c>
@@ -3445,6 +3504,9 @@
       <c r="B82" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="C82" t="s">
+        <v>159</v>
+      </c>
       <c r="D82" t="s">
         <v>140</v>
       </c>
@@ -3462,6 +3524,9 @@
       <c r="B83" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="C83" t="s">
+        <v>159</v>
+      </c>
       <c r="D83" t="s">
         <v>145</v>
       </c>
@@ -3479,6 +3544,9 @@
       <c r="B84" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="C84" t="s">
+        <v>159</v>
+      </c>
       <c r="D84" t="s">
         <v>145</v>
       </c>
@@ -3496,6 +3564,9 @@
       <c r="B85" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="C85" t="s">
+        <v>159</v>
+      </c>
       <c r="D85" t="s">
         <v>145</v>
       </c>
@@ -3513,6 +3584,9 @@
       <c r="B86" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="C86" t="s">
+        <v>159</v>
+      </c>
       <c r="D86" t="s">
         <v>145</v>
       </c>
@@ -3530,6 +3604,12 @@
       <c r="B87" s="10" t="s">
         <v>148</v>
       </c>
+      <c r="C87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" t="s">
+        <v>159</v>
+      </c>
       <c r="E87" t="s">
         <v>149</v>
       </c>
@@ -3543,6 +3623,12 @@
       </c>
       <c r="B88" s="10" t="s">
         <v>148</v>
+      </c>
+      <c r="C88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" t="s">
+        <v>159</v>
       </c>
       <c r="E88" t="s">
         <v>150</v>
@@ -3562,7 +3648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
